--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!" sheetId="2" r:id="rId1"/>
@@ -240,17 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -614,7 +604,7 @@
   <dimension ref="A1:G1596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +655,7 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">D2-TODAY()</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>20</v>
@@ -686,7 +676,7 @@
       </c>
       <c r="E3" s="9">
         <f ca="1">D3-TODAY()</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -707,7 +697,7 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">D4-TODAY()</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
@@ -731,7 +721,7 @@
       </c>
       <c r="E5" s="10">
         <f ca="1">IF(D5-TODAY()&lt;-43000,"",D5-TODAY())</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>6</v>
@@ -755,7 +745,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:E69" ca="1" si="0">IF(D6-TODAY()&lt;-43000,"",D6-TODAY())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -776,7 +766,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -800,7 +790,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
@@ -821,7 +811,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
@@ -842,7 +832,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
@@ -863,7 +853,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
@@ -887,7 +877,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
@@ -908,7 +898,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -929,7 +919,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -950,7 +940,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
@@ -10445,26 +10435,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{594B8A44-346E-4D5B-906A-5736676B00AF}">
-            <xm:f>$A$2='!'!$A$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A2:XFD2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
